--- a/learnpython/youtube_url.xlsx
+++ b/learnpython/youtube_url.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\learnpython\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{265C677A-58DF-4A88-BE48-C9B619B5FCF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{930A7CC1-2208-46D7-9D15-2352CD93C004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>Topic</t>
   </si>
@@ -57,15 +57,9 @@
     <t>https://www.youtube.com/watch?v=7jf69mrpSFw</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=GfO-3Oir-qM&amp;list=PLydZ2Hrp_gPS1DRwFcowNTRNR1B9QbPm3</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=a_k-FW8vVio</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=J0k0dxt9J0o</t>
-  </si>
-  <si>
     <t>dev1</t>
   </si>
   <si>
@@ -85,6 +79,60 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=-l6VAnq8C3U</t>
+  </si>
+  <si>
+    <t>Namefile</t>
+  </si>
+  <si>
+    <t>Topic1</t>
+  </si>
+  <si>
+    <t>Topic2</t>
+  </si>
+  <si>
+    <t>Topic3</t>
+  </si>
+  <si>
+    <t>Topic4</t>
+  </si>
+  <si>
+    <t>Topic5</t>
+  </si>
+  <si>
+    <t>00:00:00</t>
+  </si>
+  <si>
+    <t>00:01:58</t>
+  </si>
+  <si>
+    <t>00:03:35</t>
+  </si>
+  <si>
+    <t>00:04:38</t>
+  </si>
+  <si>
+    <t>00:06:42</t>
+  </si>
+  <si>
+    <t>00:07:42</t>
+  </si>
+  <si>
+    <t>00:08:56</t>
+  </si>
+  <si>
+    <t>00:02:07</t>
+  </si>
+  <si>
+    <t>00:03:00</t>
+  </si>
+  <si>
+    <t>00:06:00</t>
+  </si>
+  <si>
+    <t>00:08:00</t>
+  </si>
+  <si>
+    <t>00:10:46</t>
   </si>
 </sst>
 </file>
@@ -124,7 +172,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -147,16 +195,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -169,6 +227,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -450,232 +521,290 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="3"/>
-    <col min="3" max="3" width="73.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="118.7109375" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="16.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="73.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="118.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="2"/>
+    <col min="6" max="6" width="13.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="F4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="F5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
+      <c r="F6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="F7" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="F8" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" xr:uid="{9D813F50-B727-4FC7-8417-FF6A421E0B58}"/>
-    <hyperlink ref="D6" r:id="rId2" xr:uid="{7A0CC294-465B-41A1-A29C-0E27AC24334C}"/>
-    <hyperlink ref="C5" r:id="rId3" xr:uid="{84E7FE64-4965-4522-9F93-BE03936BE17B}"/>
-    <hyperlink ref="C6" r:id="rId4" xr:uid="{05D6D675-AF98-45D3-A5EB-DCFD252A5788}"/>
-    <hyperlink ref="D3" r:id="rId5" xr:uid="{2EE3C73C-80E7-4A41-9B94-E7000D9168B2}"/>
-    <hyperlink ref="C4" r:id="rId6" xr:uid="{EC9D272C-72F3-4C6E-BF72-BE9DE4C744CE}"/>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{84E7FE64-4965-4522-9F93-BE03936BE17B}"/>
+    <hyperlink ref="C6" r:id="rId2" xr:uid="{05D6D675-AF98-45D3-A5EB-DCFD252A5788}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{EC9D272C-72F3-4C6E-BF72-BE9DE4C744CE}"/>
+    <hyperlink ref="C2" r:id="rId4" xr:uid="{219F46A5-B974-4BE0-B897-4F8BF122ACC1}"/>
+    <hyperlink ref="F6" r:id="rId5" display="https://www.youtube.com/watch?v=Zjl2vmy02As&amp;t=376s" xr:uid="{77E64E5D-DB8C-490E-8094-C1348C644C36}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/learnpython/youtube_url.xlsx
+++ b/learnpython/youtube_url.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\learnpython\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{930A7CC1-2208-46D7-9D15-2352CD93C004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E566AE-07B2-4B89-A8A6-158D4111F31D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="24810" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
   <si>
     <t>Topic</t>
   </si>
@@ -51,88 +51,91 @@
     <t>vancar</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=7jf69mrpSFw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=a_k-FW8vVio</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=aETNYyrqNYE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-l6VAnq8C3U</t>
+  </si>
+  <si>
+    <t>Namefile</t>
+  </si>
+  <si>
+    <t>Topic1</t>
+  </si>
+  <si>
+    <t>Topic2</t>
+  </si>
+  <si>
+    <t>Topic3</t>
+  </si>
+  <si>
+    <t>Topic4</t>
+  </si>
+  <si>
+    <t>Topic5</t>
+  </si>
+  <si>
+    <t>00:00:00</t>
+  </si>
+  <si>
+    <t>00:01:58</t>
+  </si>
+  <si>
+    <t>00:03:35</t>
+  </si>
+  <si>
+    <t>00:04:38</t>
+  </si>
+  <si>
+    <t>00:06:42</t>
+  </si>
+  <si>
+    <t>00:07:42</t>
+  </si>
+  <si>
+    <t>00:08:56</t>
+  </si>
+  <si>
+    <t>00:02:07</t>
+  </si>
+  <si>
+    <t>00:03:00</t>
+  </si>
+  <si>
+    <t>00:06:00</t>
+  </si>
+  <si>
+    <t>00:08:00</t>
+  </si>
+  <si>
+    <t>00:10:46</t>
+  </si>
+  <si>
+    <t>00:03:58</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=Zjl2vmy02As</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=7jf69mrpSFw</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=a_k-FW8vVio</t>
-  </si>
-  <si>
-    <t>dev1</t>
-  </si>
-  <si>
-    <t>english2</t>
-  </si>
-  <si>
-    <t>ourplanet3</t>
-  </si>
-  <si>
-    <t>student4</t>
-  </si>
-  <si>
-    <t>vancar5</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=aETNYyrqNYE</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=-l6VAnq8C3U</t>
-  </si>
-  <si>
-    <t>Namefile</t>
-  </si>
-  <si>
-    <t>Topic1</t>
-  </si>
-  <si>
-    <t>Topic2</t>
-  </si>
-  <si>
-    <t>Topic3</t>
-  </si>
-  <si>
-    <t>Topic4</t>
-  </si>
-  <si>
-    <t>Topic5</t>
-  </si>
-  <si>
-    <t>00:00:00</t>
-  </si>
-  <si>
-    <t>00:01:58</t>
-  </si>
-  <si>
-    <t>00:03:35</t>
-  </si>
-  <si>
-    <t>00:04:38</t>
-  </si>
-  <si>
-    <t>00:06:42</t>
-  </si>
-  <si>
-    <t>00:07:42</t>
-  </si>
-  <si>
-    <t>00:08:56</t>
-  </si>
-  <si>
-    <t>00:02:07</t>
-  </si>
-  <si>
-    <t>00:03:00</t>
-  </si>
-  <si>
-    <t>00:06:00</t>
-  </si>
-  <si>
-    <t>00:08:00</t>
-  </si>
-  <si>
-    <t>00:10:46</t>
+    <t>ngoctuan201097@gmail.com</t>
+  </si>
+  <si>
+    <t>201097Aa@</t>
+  </si>
+  <si>
+    <t>tuanh.ng220@gmail.com</t>
+  </si>
+  <si>
+    <t>Tuanln2010@</t>
+  </si>
+  <si>
+    <t>yennhiluu61@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -213,7 +216,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -240,6 +243,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -524,7 +530,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,22 +556,22 @@
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -576,20 +582,25 @@
         <v>2</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="8"/>
+        <v>18</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="H2" s="8" t="s">
-        <v>24</v>
+        <v>18</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -599,22 +610,27 @@
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
+      <c r="C3" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8" t="s">
-        <v>31</v>
+      <c r="I3" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -625,17 +641,23 @@
         <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>26</v>
+        <v>20</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -646,17 +668,17 @@
         <v>6</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -667,17 +689,17 @@
         <v>7</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -685,7 +707,7 @@
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="F7" s="8" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -693,7 +715,7 @@
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="F8" s="8" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -736,62 +758,80 @@
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -803,8 +843,15 @@
     <hyperlink ref="C4" r:id="rId3" xr:uid="{EC9D272C-72F3-4C6E-BF72-BE9DE4C744CE}"/>
     <hyperlink ref="C2" r:id="rId4" xr:uid="{219F46A5-B974-4BE0-B897-4F8BF122ACC1}"/>
     <hyperlink ref="F6" r:id="rId5" display="https://www.youtube.com/watch?v=Zjl2vmy02As&amp;t=376s" xr:uid="{77E64E5D-DB8C-490E-8094-C1348C644C36}"/>
+    <hyperlink ref="C3" r:id="rId6" xr:uid="{B9D5E238-9D53-4B7D-8D38-D923A2F47DCC}"/>
+    <hyperlink ref="D17" r:id="rId7" xr:uid="{AA810AB8-B697-4812-86B0-1F3E73B576AF}"/>
+    <hyperlink ref="D18" r:id="rId8" xr:uid="{3714DF1E-8E57-47CA-9D98-7058DA7A2C65}"/>
+    <hyperlink ref="D19" r:id="rId9" xr:uid="{674B194C-DC6E-433A-91AD-3D121E50CAE8}"/>
+    <hyperlink ref="D20" r:id="rId10" xr:uid="{205EC7FF-A692-4BCD-B3B4-BAFA967A6E56}"/>
+    <hyperlink ref="D21" r:id="rId11" xr:uid="{E7FFED0B-6E50-4073-81E3-693F4FA0166B}"/>
+    <hyperlink ref="D22" r:id="rId12" xr:uid="{E2D7BA12-74F5-472B-96C2-A4B0B505065A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
--- a/learnpython/youtube_url.xlsx
+++ b/learnpython/youtube_url.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\learnpython\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E566AE-07B2-4B89-A8A6-158D4111F31D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B883608-E8FA-45CA-9B38-5D2F3946F989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="24810" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="49">
   <si>
     <t>Topic</t>
   </si>
@@ -136,6 +136,42 @@
   </si>
   <si>
     <t>yennhiluu61@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=nJJyilEPwpk</t>
+  </si>
+  <si>
+    <t>ielts</t>
+  </si>
+  <si>
+    <t>Topic6</t>
+  </si>
+  <si>
+    <t>IELTS Practice Speaking</t>
+  </si>
+  <si>
+    <t>Speaking</t>
+  </si>
+  <si>
+    <t>00:02:57</t>
+  </si>
+  <si>
+    <t>00:04:30</t>
+  </si>
+  <si>
+    <t>00:07:23</t>
+  </si>
+  <si>
+    <t>00:07:53</t>
+  </si>
+  <si>
+    <t>00:10:20</t>
+  </si>
+  <si>
+    <t>00:13:09</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gmqlNXgh3rQ</t>
   </si>
 </sst>
 </file>
@@ -527,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,7 +580,7 @@
     <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -573,8 +609,11 @@
       <c r="J1" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -602,8 +641,11 @@
       <c r="J2" s="8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -632,8 +674,11 @@
       <c r="J3" s="8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K3" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -659,8 +704,11 @@
       <c r="J4" s="8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -680,8 +728,11 @@
       <c r="J5" s="8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -701,59 +752,81 @@
       <c r="J6" s="8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+      <c r="K6" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="F7" s="8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="C8" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="F8" s="8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9" s="8"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10" s="8"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -761,7 +834,9 @@
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D17" s="10" t="s">
         <v>32</v>
       </c>
@@ -777,7 +852,9 @@
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
+      <c r="C19" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="D19" s="10" t="s">
         <v>34</v>
       </c>
@@ -793,7 +870,9 @@
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
+      <c r="C21" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="D21" s="10" t="s">
         <v>36</v>
       </c>
@@ -850,8 +929,9 @@
     <hyperlink ref="D20" r:id="rId10" xr:uid="{205EC7FF-A692-4BCD-B3B4-BAFA967A6E56}"/>
     <hyperlink ref="D21" r:id="rId11" xr:uid="{E7FFED0B-6E50-4073-81E3-693F4FA0166B}"/>
     <hyperlink ref="D22" r:id="rId12" xr:uid="{E2D7BA12-74F5-472B-96C2-A4B0B505065A}"/>
+    <hyperlink ref="C8" r:id="rId13" xr:uid="{46D5B5BE-40E3-4970-829A-94DCAE7286E4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>